--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>Номер</t>
   </si>
@@ -25,28 +25,13 @@
     <t>Регион</t>
   </si>
   <si>
-    <t>+7 (987) 167-62-66</t>
-  </si>
-  <si>
-    <t>ПАО "Вымпел-Коммуникации"</t>
-  </si>
-  <si>
-    <t>АО "ГЛОНАСС"</t>
-  </si>
-  <si>
-    <t>ПАО "Мобильные ТелеСистемы"</t>
-  </si>
-  <si>
-    <t>Алтайский край</t>
-  </si>
-  <si>
-    <t>Москва и Московская область</t>
-  </si>
-  <si>
-    <t>Республика Тыва</t>
-  </si>
-  <si>
-    <t>Самарская обл.</t>
+    <t>79999999999</t>
+  </si>
+  <si>
+    <t>ООО "Скартел"</t>
+  </si>
+  <si>
+    <t>г. Москва и Московская область</t>
   </si>
 </sst>
 </file>
@@ -422,36 +407,36 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>9059875127</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>89410990456</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>9835166448</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -459,10 +444,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Номер</t>
   </si>
@@ -25,13 +25,22 @@
     <t>Регион</t>
   </si>
   <si>
-    <t>79999999999</t>
-  </si>
-  <si>
-    <t>ООО "Скартел"</t>
-  </si>
-  <si>
-    <t>г. Москва и Московская область</t>
+    <t>79059875127</t>
+  </si>
+  <si>
+    <t>79410990456</t>
+  </si>
+  <si>
+    <t>ПАО "Вымпел-Коммуникации"</t>
+  </si>
+  <si>
+    <t>АО "ГЛОНАСС"</t>
+  </si>
+  <si>
+    <t>Алтайский край</t>
+  </si>
+  <si>
+    <t>Москва и Московская область</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,43 +420,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
